--- a/Datascraping/output_excel_files_new/Govt. College for Women, Thiruvananthapuram_tables.xlsx
+++ b/Datascraping/output_excel_files_new/Govt. College for Women, Thiruvananthapuram_tables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,32 +520,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UG [3 Years Program(s)]</t>
+          <t>UG [5 Years Program(s)]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>250</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>250</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>250</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>200</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>200</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -563,22 +563,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PG [2 Year Program(s)]</t>
+          <t>PG [3 Year Program(s)]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>248</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>245</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>218</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -710,58 +710,58 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UG [3 Years+          <t>UG [5 Years Program(s)]</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1010</t>
+          <t>522</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1717</t>
+          <t>628</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2727</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2696</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>60</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1184</t>
+          <t>457</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>517</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -771,40 +771,40 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PG [2 Year+          <t>PG [3 Year Program(s)]</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>205</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>509</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>714</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>661</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -814,22 +814,22 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>263</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>92</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -839,7 +839,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>195</t>
         </is>
       </c>
     </row>
@@ -870,17 +870,31 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>No. of students graduating in minimum-stipulated time</t>
+          <t>No. of students+admitted through+Lateral entry</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
+        <is>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>No. of students+graduating in+minimum stipulated+time</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -888,15 +902,13 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -904,47 +916,56 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2017-18</t>
+          <t>2014-15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>770</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>2018-19</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>180000(One lakh-eighty thousand)</t>
+          <t>181</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>364</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>526500(Five Lakhs+twenty six thousand+and Five Hundred)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -952,47 +973,56 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>2015-16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>628</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>752</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>365000(Three lakh-sixty five thousand)</t>
+          <t>187</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>481</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>550500(Five Lakhs+Fifty Thousand and+Five Hundred)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -1000,48 +1030,56 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2016-17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>827</t>
+          <t>200</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>2017-18</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>614</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>325000(Three lakh-twenty five thousand-only)</t>
+          <t>190</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>415</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>575000(Five Lakhs+Seventy Five+Thousand)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -1073,17 +1111,31 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>No. of students graduating in minimum-stipulated time</t>
+          <t>No. of students+admitted through+Lateral entry</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
+        <is>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>No. of students+graduating in+minimum stipulated+time</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -1091,15 +1143,13 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1107,47 +1157,55 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>2018-19</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
         <is>
           <t>2019-20</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>240000(Two lakh forty-thousand)</t>
+          <t>214</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1500000(Fifteen+Lakhs)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1155,47 +1213,55 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>2019-20</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
         <is>
           <t>2020-21</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>240000(Two lakh forty-thousand)</t>
+          <t>215</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1600000(Sixteen+Lakhs)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1203,47 +1269,55 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>2020-21</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>187</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
         <is>
           <t>2021-22</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>300000(Three lakh-only)</t>
+          <t>210</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1650000(Sixteen+Lakhs Fifty Thousand)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1251,24 +1325,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Financial Year</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
+          <t>Ph.D (Student pursuing doctoral program till 2021-22)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -1283,19 +1345,11 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Utilised Amount</t>
-        </is>
-      </c>
+          <t>Total Students</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1309,10 +1363,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
+          <t>Full Time</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
@@ -1328,26 +1386,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Library</t>
+          <t>Part Time</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>410850 (Four lakh ten thousand eight hundred and fifty)</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>219890 (Two lakh nineteen thousand eight hundred and-ninety)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>317889 (Three lakh seventeen thousand eight hundred and-eighty nine)</t>
-        </is>
-      </c>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1361,26 +1409,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>New Equipment for Laboratories</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>3047505 (Thirty lakh forty seven thousand five hundred and-five only)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>821081 (Eight lakh twenty one thousand and eighty one)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>6818350 (Sixty eight lakh eighteen thousand three hundred-and fifty)</t>
-        </is>
-      </c>
+          <t>No. of Ph.D students graduated (including Integrated Ph.D)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1392,28 +1426,20 @@
       <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Other expenditure on creation of Capital Assets (excluding-expenditure on Land and Building)</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3758602 (Thirty seven lakh fifty eight thousand six hundred-and two only)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>930888 (Nine lakh thirty thousand eight hundred and eighty-eight)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1543277 (Fifteen lakh forty three thousand two hundred and-seventy seven)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1429,22 +1455,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -1458,20 +1484,24 @@
       <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Part Time</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
@@ -1487,10 +1517,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Annual Operational Expenditure</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr"/>
+          <t>Number of students pursuing PG (MD/MS/DNB) program</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
@@ -1506,27 +1540,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Salaries (Teaching and Non Teaching staff)</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>142932990 (Fourteen crore twenty nine lakh thirty two-thousand nine hundred and ninety only)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>111293122 (Eleven Crores Twelve lakh ninety three thousand-one hundred and twenty two only)</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>120261746 (Twelve crore two lakh sixty one thousand seven-hundred and forty six only)</t>
-        </is>
-      </c>
+          <t>No. of students Graduating in PG (MD/MS/DNB) program</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1540,29 +1559,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Maintenance of Academic Infrastructure or consumables and-other running expenditures(excluding maintenance of hostels-and allied services,rent of the building, depreciation cost, etc)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>11198904 (One crore eleven lakhs ninety eight thousand nine-hundred and four only)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16597263 (One crore sixty five lakh ninety seven thousand two-hundred and sixty three)</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>5843794 (Fifty eight lakh forty three thousand seven hundred-and ninety four)</t>
-        </is>
-      </c>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1576,26 +1586,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Seminars/Conferences/Workshops</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>571163 (Five lakh seventy one thousand one hundred and-sixty three only)</t>
+          <t>229</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>600905 (Six lakh nine hundred and five)</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>649762 (Six lakh forty nine thousand seven hundred and sixty-two)</t>
-        </is>
-      </c>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -1609,14 +1613,10 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1. Do your institution buildings have Lifts/Ramps?</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
+          <t>No. of students Graduating in Super Speciality program (DM/MCH)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
@@ -1632,16 +1632,19 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for-handicapped students?</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -1656,15 +1659,19 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
+          <t>51</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -1679,16 +1686,24 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Number of faculty members entered</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1699,6 +1714,665 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Library</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>555500 (Five Lakhs Fifty Five Thousand Five Hundred)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0 (Zero)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2300000 (Twenty Three Lakhs)</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>New Equipment for Laboratories</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>53064745 (Five Crore Thirty Lakh Sixty Four Thousand Seven+Hundred and Forty Five )</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>59948438 (Five Crore Ninety Nine Lakh Fort Eight Thousand+Four Hundred and Thirty Eight)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>45948515 (Four Crore Fifty Nine Lakh Forty Eight Thousand+Five Hundred and Fifteen)</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Other expenditure on creation of Capital Assets (excluding+expenditure on Land and Building)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3588800 (Thirty Five Lakh Eighty Eight Thousand Eight+Hundred )</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0 (Zero)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0 (Zero)</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Financial Year</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Annual Operational Expenditure</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Salaries (Teaching and Non Teaching staff)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1738953215 (One Hundred and Seventy Three Crore Eighty+Nine Lakh Fifty Three Thousand two Hundred and Fifteen)</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>1521362237 (One Hundred and Fifty Two Crores Thirteen+Lakh Sixty Two Thousand Two Hundred and Thirty Seven)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1172242096 (One Hundred and Seventeen Crores Twenty+Two Lakh Forty Two Thousand and Ninety Six)</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Maintenance of Academic Infrastructure or consumables and+other running expenditures(excluding maintenance of hostels+and allied services,rent of the building, depreciation cost, etc)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>6000000 (Sixty Lakhs)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5000000 (Fifty Lakhs)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6000000 (Sixty Lakhs)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Seminars/Conferences/Workshops</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1573618 (Fifteen Lakh Seventy Three Thousand Six Hundred+and Eighteen)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1248402 (Twelve Lakh Forty Eight Thousand Four Hundred+and Two)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>554215 (Five Lakh Fifty Four Thousand Two Hundred and+Fifteen)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Financial Year</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Total no. of Sponsored Projects</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Total no. of Funding Agencies</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Total Amount Received (Amount in Rupees)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>10347687</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>115000</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Amount Received in Words</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>One Crore Three Lakh Forty Seven Thousand Six Hundred+and Eighty Seven</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>One Lakh Fifteen Thousand</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Zero</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1. Average OPD attendance in the calendar year 2021.</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>4115</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2. Average Bed Occupancy in the calendar year 2021.</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>a. Number of beds in the hospital.</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>3479</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>b. Average occupancy per day.</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3305</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1. Do your institution buildings have Lifts/Ramps?</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for+handicapped students?</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Not available</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Number of faculty members entered</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
